--- a/matlab_code/model_fitting/figures/para_compare.xlsx
+++ b/matlab_code/model_fitting/figures/para_compare.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\brain theory\mushroom body\MB math model\Github\Nature_2024_MB_model\matlab_code\model_fitting\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\brain theory\mushroom body\MB math model\Github\Schnitzer_lab\Nature_2024_MB_model\matlab_code\model_fitting\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E02F1A8-C6C8-46F8-A26F-87A165D5F2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBB5F7E-26E4-44D2-9DAB-001E0EFD4AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="-13845" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{5E6F4C38-4106-43B2-A9A1-BBE4E65FCE4F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5E6F4C38-4106-43B2-A9A1-BBE4E65FCE4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Dx_SS_NL_3_07-Apr-2024" sheetId="2" r:id="rId2"/>
+    <sheet name="Dx_SS_NL_3_10-Apr-2024" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -415,11 +415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F03593-951E-4723-ABF9-88D9F04DECF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B2EDFE-B844-43A5-AD06-8C90B80E0825}">
   <dimension ref="C3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="C3" sqref="C3:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,420 +429,420 @@
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
+        <v>-7.1169105405716975</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-9.2075193340268093</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-5.5009839029411092</v>
+      </c>
+      <c r="F3" s="1">
         <v>-7.0351681787235618</v>
       </c>
-      <c r="D3" s="1">
+      <c r="G3" s="1">
         <v>-8.7798348197589942</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H3" s="1">
         <v>-5.6371893456969602</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-7.1169105405716975</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-9.2075193340268093</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-5.5009839029411092</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
+        <v>-21.25904714274246</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-27.323720123015608</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-16.540466795246434</v>
+      </c>
+      <c r="F4" s="1">
         <v>-20.167492357174837</v>
       </c>
-      <c r="D4" s="1">
+      <c r="G4" s="1">
         <v>-23.981960216299228</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4" s="1">
         <v>-16.959737415470933</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-21.25904714274246</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-27.323720123015608</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-16.540466795246434</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
+        <v>-2.114659931486826</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-3.2503493391708966</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-0.97897052380275507</v>
+      </c>
+      <c r="F5" s="1">
         <v>-1.9441201549024132</v>
       </c>
-      <c r="D5" s="1">
+      <c r="G5" s="1">
         <v>-2.5473934492096171</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5" s="1">
         <v>-1.3408468605952093</v>
       </c>
-      <c r="F5" s="1">
-        <v>-2.114659931486826</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-3.2503493391708966</v>
-      </c>
-      <c r="H5" s="1">
-        <v>-0.97897052380275507</v>
-      </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
+      <c r="C6" s="1">
         <v>-3.7536848556073035</v>
       </c>
-      <c r="G6" s="1">
+      <c r="D6" s="1">
         <v>-6.0991747699920129</v>
       </c>
-      <c r="H6" s="1">
+      <c r="E6" s="1">
         <v>-1.4081949412225945</v>
       </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
+        <v>4.6797658793994019</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.7679275528548022</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.5916042059440016</v>
+      </c>
+      <c r="F7" s="1">
         <v>3.9712235695398674</v>
       </c>
-      <c r="D7" s="1">
+      <c r="G7" s="1">
         <v>2.4271776968824783</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7" s="1">
         <v>5.5152694421972566</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4.6797658793994019</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3.7679275528548022</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5.5916042059440016</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
+        <v>5.1443286662335863</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.9738015597278862</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.3148557727392864</v>
+      </c>
+      <c r="F8" s="1">
         <v>5.0221537618463357</v>
       </c>
-      <c r="D8" s="1">
+      <c r="G8" s="1">
         <v>4.0195916910820824</v>
       </c>
-      <c r="E8" s="1">
+      <c r="H8" s="1">
         <v>6.024715832610589</v>
       </c>
-      <c r="F8" s="1">
-        <v>5.1443286662335863</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3.9738015597278862</v>
-      </c>
-      <c r="H8" s="1">
-        <v>6.3148557727392864</v>
-      </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
+      <c r="C9" s="1">
         <v>2.9404538989128071</v>
       </c>
-      <c r="G9" s="1">
+      <c r="D9" s="1">
         <v>1.3729205203251758</v>
       </c>
-      <c r="H9" s="1">
+      <c r="E9" s="1">
         <v>4.5079872775004386</v>
       </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
+        <v>13.719957724943319</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12.249023026719598</v>
+      </c>
+      <c r="E10" s="1">
+        <v>15.190892423167039</v>
+      </c>
+      <c r="F10" s="1">
         <v>12.551950550124527</v>
       </c>
-      <c r="D10" s="1">
+      <c r="G10" s="1">
         <v>10.779880484720382</v>
       </c>
-      <c r="E10" s="1">
+      <c r="H10" s="1">
         <v>14.324020615528672</v>
-      </c>
-      <c r="F10" s="1">
-        <v>13.719957724943319</v>
-      </c>
-      <c r="G10" s="1">
-        <v>12.249023026719598</v>
-      </c>
-      <c r="H10" s="1">
-        <v>15.190892423167039</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
+        <v>25.409349826326743</v>
+      </c>
+      <c r="D11" s="1">
+        <v>23.55580985374322</v>
+      </c>
+      <c r="E11" s="1">
+        <v>27.262889798910265</v>
+      </c>
+      <c r="F11" s="1">
         <v>24.835362199176025</v>
       </c>
-      <c r="D11" s="1">
+      <c r="G11" s="1">
         <v>23.012590740716998</v>
       </c>
-      <c r="E11" s="1">
+      <c r="H11" s="1">
         <v>26.658133657635052</v>
       </c>
-      <c r="F11" s="1">
-        <v>25.409349826326743</v>
-      </c>
-      <c r="G11" s="1">
-        <v>23.55580985374322</v>
-      </c>
-      <c r="H11" s="1">
-        <v>27.262889798910265</v>
-      </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
+      <c r="C12" s="1">
         <v>17.340769695144431</v>
       </c>
-      <c r="G12" s="1">
+      <c r="D12" s="1">
         <v>14.801951310797316</v>
       </c>
-      <c r="H12" s="1">
+      <c r="E12" s="1">
         <v>19.879588079491548</v>
       </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
+        <v>16.325998593348324</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14.990090335624375</v>
+      </c>
+      <c r="E13" s="1">
+        <v>17.661906851072271</v>
+      </c>
+      <c r="F13" s="1">
         <v>16.559458722000155</v>
       </c>
-      <c r="D13" s="1">
+      <c r="G13" s="1">
         <v>15.34909771839463</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13" s="1">
         <v>17.769819725605682</v>
-      </c>
-      <c r="F13" s="1">
-        <v>16.325998593348324</v>
-      </c>
-      <c r="G13" s="1">
-        <v>14.990090335624375</v>
-      </c>
-      <c r="H13" s="1">
-        <v>17.661906851072271</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
+        <v>-3.8317847418581054E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.11555628847191338</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1.2705993331990125E-2</v>
+      </c>
+      <c r="F14" s="1">
         <v>-3.6791187041650096E-2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="G14" s="1">
         <v>-7.2903338328413503E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H14" s="1">
         <v>-1.8566933627045312E-2</v>
       </c>
-      <c r="F14" s="1">
-        <v>-3.8317847418581054E-2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-0.11555628847191338</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-1.2705993331990125E-2</v>
-      </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
+      <c r="C15" s="1">
         <v>-7.4808980959871846E-2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="D15" s="1">
         <v>-0.1348829165229074</v>
       </c>
-      <c r="H15" s="1">
+      <c r="E15" s="1">
         <v>-4.1490677815407592E-2</v>
       </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
+        <v>-0.38164540882210729</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.44087887240375878</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-0.33037014743043425</v>
+      </c>
+      <c r="F16" s="1">
         <v>-0.35007434862753345</v>
       </c>
-      <c r="D16" s="1">
+      <c r="G16" s="1">
         <v>-0.42197639644410112</v>
       </c>
-      <c r="E16" s="1">
+      <c r="H16" s="1">
         <v>-0.29042394456114135</v>
       </c>
-      <c r="F16" s="1">
-        <v>-0.38164540882210729</v>
-      </c>
-      <c r="G16" s="1">
-        <v>-0.44087887240375878</v>
-      </c>
-      <c r="H16" s="1">
-        <v>-0.33037014743043425</v>
-      </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
+      <c r="C17" s="1">
         <v>-0.30874981603134749</v>
       </c>
-      <c r="G17" s="1">
+      <c r="D17" s="1">
         <v>-0.39910635568589359</v>
       </c>
-      <c r="H17" s="1">
+      <c r="E17" s="1">
         <v>-0.2388497390264944</v>
       </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
+        <v>-2.0897919221366294E-9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-8.6125396371189057E-9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-5.0707810493031852E-10</v>
+      </c>
+      <c r="F18" s="1">
         <v>-2.0743325852337948E-9</v>
       </c>
-      <c r="D18" s="1">
+      <c r="G18" s="1">
         <v>-8.6240919932594999E-9</v>
       </c>
-      <c r="E18" s="1">
+      <c r="H18" s="1">
         <v>-4.9893434317790037E-10</v>
       </c>
-      <c r="F18" s="1">
-        <v>-2.0897919221366294E-9</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-8.6125396371189057E-9</v>
-      </c>
-      <c r="H18" s="1">
-        <v>-5.0707810493031852E-10</v>
-      </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1">
+      <c r="C19" s="1">
         <v>0.15474228901722345</v>
       </c>
-      <c r="G19" s="1">
+      <c r="D19" s="1">
         <v>8.2117348115465283E-2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="E19" s="1">
         <v>0.2915970444712922</v>
       </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1">
+      <c r="C20" s="1">
         <v>2.0897965087825323E-9</v>
       </c>
-      <c r="G20" s="1">
+      <c r="D20" s="1">
         <v>5.0449669968244676E-10</v>
       </c>
-      <c r="H20" s="1">
+      <c r="E20" s="1">
         <v>8.6566462196256334E-9</v>
       </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
+        <v>2.0897915132938865E-9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.0353126763997408E-10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8.6732023405500423E-9</v>
+      </c>
+      <c r="F21" s="1">
         <v>2.0743332914430242E-9</v>
       </c>
-      <c r="D21" s="1">
+      <c r="G21" s="1">
         <v>4.952130579489435E-10</v>
       </c>
-      <c r="E21" s="1">
+      <c r="H21" s="1">
         <v>8.6889037656040087E-9</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2.0897915132938865E-9</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5.0353126763997408E-10</v>
-      </c>
-      <c r="H21" s="1">
-        <v>8.6732023405500423E-9</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
+        <v>2022.7098422193494</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1726.0420099830596</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2370.3682078115698</v>
+      </c>
+      <c r="F22" s="1">
         <v>1874.5710459463544</v>
       </c>
-      <c r="D22" s="1">
+      <c r="G22" s="1">
         <v>1643.7567883531894</v>
       </c>
-      <c r="E22" s="1">
+      <c r="H22" s="1">
         <v>2137.7959508358617</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2022.7098422193494</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1726.0420099830596</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2370.3682078115698</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
+        <v>6219.8286112709084</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5525.0219638689159</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7002.0116130894075</v>
+      </c>
+      <c r="F23" s="1">
         <v>6301.7262741639106</v>
       </c>
-      <c r="D23" s="1">
+      <c r="G23" s="1">
         <v>5702.7840398825465</v>
       </c>
-      <c r="E23" s="1">
+      <c r="H23" s="1">
         <v>6963.5731875453703</v>
-      </c>
-      <c r="F23" s="1">
-        <v>6219.8286112709084</v>
-      </c>
-      <c r="G23" s="1">
-        <v>5525.0219638689159</v>
-      </c>
-      <c r="H23" s="1">
-        <v>7002.0116130894075</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
+        <v>242787.59006247285</v>
+      </c>
+      <c r="D24" s="1">
+        <v>122197.8585001835</v>
+      </c>
+      <c r="E24" s="1">
+        <v>482380.0892407198</v>
+      </c>
+      <c r="F24" s="1">
         <v>260629.09787271384</v>
       </c>
-      <c r="D24" s="1">
+      <c r="G24" s="1">
         <v>130343.58717121965</v>
       </c>
-      <c r="E24" s="1">
+      <c r="H24" s="1">
         <v>521142.06868278747</v>
-      </c>
-      <c r="F24" s="1">
-        <v>242787.59006247285</v>
-      </c>
-      <c r="G24" s="1">
-        <v>122197.8585001835</v>
-      </c>
-      <c r="H24" s="1">
-        <v>482380.0892407198</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
+        <v>791.98416788669135</v>
+      </c>
+      <c r="D25" s="1">
+        <v>675.32274923588977</v>
+      </c>
+      <c r="E25" s="1">
+        <v>928.79874533011002</v>
+      </c>
+      <c r="F25" s="1">
         <v>712.48211635125108</v>
       </c>
-      <c r="D25" s="1">
+      <c r="G25" s="1">
         <v>584.67699284565867</v>
       </c>
-      <c r="E25" s="1">
+      <c r="H25" s="1">
         <v>868.22428850789515</v>
-      </c>
-      <c r="F25" s="1">
-        <v>791.98416788669135</v>
-      </c>
-      <c r="G25" s="1">
-        <v>675.32274923588977</v>
-      </c>
-      <c r="H25" s="1">
-        <v>928.79874533011002</v>
       </c>
     </row>
   </sheetData>

--- a/matlab_code/model_fitting/figures/para_compare.xlsx
+++ b/matlab_code/model_fitting/figures/para_compare.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\brain theory\mushroom body\MB math model\Github\Schnitzer_lab\Nature_2024_MB_model\matlab_code\model_fitting\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\brain theory\mushroom body\MB math model\Github\Schnitzer_lab\Huang_Luo_2024_MB_model\matlab_code\model_fitting\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBB5F7E-26E4-44D2-9DAB-001E0EFD4AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ADFCAF-5E6E-4113-965E-F9C8777CDB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5E6F4C38-4106-43B2-A9A1-BBE4E65FCE4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Dx_SS_NL_3_10-Apr-2024" sheetId="4" r:id="rId2"/>
+    <sheet name="Dx_SS_NL_3_17-Apr-2024" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -415,16 +415,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B2EDFE-B844-43A5-AD06-8C90B80E0825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08BA86F-227A-465B-BC65-E2A10C94D980}">
   <dimension ref="C3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="8" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
@@ -497,9 +499,6 @@
       <c r="E6" s="1">
         <v>-1.4081949412225945</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
@@ -551,9 +550,6 @@
       <c r="E9" s="1">
         <v>4.5079872775004386</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
@@ -605,9 +601,6 @@
       <c r="E12" s="1">
         <v>19.879588079491548</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
@@ -659,9 +652,6 @@
       <c r="E15" s="1">
         <v>-4.1490677815407592E-2</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
@@ -693,9 +683,6 @@
       <c r="E17" s="1">
         <v>-0.2388497390264944</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
@@ -727,9 +714,6 @@
       <c r="E19" s="1">
         <v>0.2915970444712922</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
@@ -741,9 +725,6 @@
       <c r="E20" s="1">
         <v>8.6566462196256334E-9</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
